--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsInspiredOxygenExtension</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsInspiredOxygenExtension</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -328,7 +328,7 @@
     <t>Flow</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsFlowExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsFlowExtension}
 </t>
   </si>
   <si>
@@ -338,7 +338,7 @@
     <t>FiO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsFiO2Extension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsFiO2Extension}
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>PrecentO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsPercentO2Extension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsPercentO2Extension}
 </t>
   </si>
   <si>
@@ -367,7 +367,7 @@
     <t>OnAir</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsOnAirExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsOnAirExtension}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>MethodofOxygenDelivery</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsMethodofOxygenDeliveryExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsMethodofOxygenDeliveryExtension}
 </t>
   </si>
   <si>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsInspiredOxygenExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
